--- a/topRated.xlsx
+++ b/topRated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurareese/Library/Mobile Documents/com~apple~CloudDocs/Documents/MATLAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC064B-3A5A-4046-ADB5-1DEEEE12656A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F2549-10AF-7641-A0C3-7D341498B5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="3960" windowWidth="25240" windowHeight="12500" xr2:uid="{B5600C43-D5A9-8E46-927A-207147EEE4D3}"/>
   </bookViews>
@@ -384,1988 +384,2892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A8C6F2-3554-9947-9B12-804F028C1C75}">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection sqref="A1:B247"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>39.382426549999998</v>
+        <v>39.251339710000003</v>
       </c>
       <c r="B1" s="1">
-        <v>-85.499864049999999</v>
+        <v>-85.291330279999997</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>39.135109370000002</v>
+        <v>39.755407060000003</v>
       </c>
       <c r="B2" s="1">
-        <v>-85.830490060000002</v>
+        <v>-85.187628939999996</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>39.406153199999999</v>
+        <v>39.624208930000002</v>
       </c>
       <c r="B3" s="1">
-        <v>-85.929083000000006</v>
+        <v>-85.028976529999994</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>39.126167860000002</v>
+        <v>39.735047719999997</v>
       </c>
       <c r="B4" s="1">
-        <v>-85.108333610000003</v>
+        <v>-85.635145559999998</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>39.759885619999999</v>
+        <v>39.346581190000002</v>
       </c>
       <c r="B5" s="1">
-        <v>-85.5005065</v>
+        <v>-85.284779439999994</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>39.91571441</v>
+        <v>39.124201650000003</v>
       </c>
       <c r="B6" s="1">
-        <v>-85.847806939999998</v>
+        <v>-85.939045519999993</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>39.599674309999997</v>
+        <v>39.4371711</v>
       </c>
       <c r="B7" s="1">
-        <v>-85.444581769999999</v>
+        <v>-85.823059990000004</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>39.246288939999999</v>
+        <v>39.533025029999997</v>
       </c>
       <c r="B8" s="1">
-        <v>-85.152915460000003</v>
+        <v>-85.234989240000004</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>39.587776949999999</v>
+        <v>39.073586749999997</v>
       </c>
       <c r="B9" s="1">
-        <v>-85.564805140000004</v>
+        <v>-85.843927679999993</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>39.541384770000001</v>
+        <v>39.721774529999998</v>
       </c>
       <c r="B10" s="1">
-        <v>-85.58897872</v>
+        <v>-85.324792709999997</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>39.22516297</v>
+        <v>39.722144620000002</v>
       </c>
       <c r="B11" s="1">
-        <v>-85.958714709999995</v>
+        <v>-85.358747399999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>39.338425890000003</v>
+        <v>39.794846319999998</v>
       </c>
       <c r="B12" s="1">
-        <v>-85.052456079999999</v>
+        <v>-85.078358550000004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>39.384033959999996</v>
+        <v>39.64936625</v>
       </c>
       <c r="B13" s="1">
-        <v>-85.425799339999998</v>
+        <v>-85.884533509999997</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>39.07029661</v>
+        <v>39.851192359999999</v>
       </c>
       <c r="B14" s="1">
-        <v>-85.593918909999999</v>
+        <v>-85.085527729999995</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>39.832478649999999</v>
+        <v>39.889078140000002</v>
       </c>
       <c r="B15" s="1">
-        <v>-85.899245559999997</v>
+        <v>-85.84764199</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>39.978555790000001</v>
+        <v>39.951806439999999</v>
       </c>
       <c r="B16" s="1">
-        <v>-85.285229759999993</v>
+        <v>-85.585282210000003</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>39.35848172</v>
+        <v>39.183993110000003</v>
       </c>
       <c r="B17" s="1">
-        <v>-85.347751700000003</v>
+        <v>-85.652056970000004</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>39.722186469999997</v>
+        <v>39.998536209999997</v>
       </c>
       <c r="B18" s="1">
-        <v>-85.59112442</v>
+        <v>-85.232949329999997</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>39.971490119999999</v>
+        <v>39.088431839999998</v>
       </c>
       <c r="B19" s="1">
-        <v>-85.104786559999994</v>
+        <v>-85.011351020000006</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>39.303801129999997</v>
+        <v>39.847247830000001</v>
       </c>
       <c r="B20" s="1">
-        <v>-85.960137349999997</v>
+        <v>-85.668569210000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>39.959980260000002</v>
+        <v>39.389473969999997</v>
       </c>
       <c r="B21" s="1">
-        <v>-85.903329069999998</v>
+        <v>-85.185138690000002</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>39.747559359999997</v>
+        <v>39.619372499999997</v>
       </c>
       <c r="B22" s="1">
-        <v>-85.213470770000001</v>
+        <v>-85.307984329999996</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>39.12924469</v>
+        <v>39.921038840000001</v>
       </c>
       <c r="B23" s="1">
-        <v>-85.727750159999999</v>
+        <v>-85.0671976</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>39.021942119999999</v>
+        <v>39.494237839999997</v>
       </c>
       <c r="B24" s="1">
-        <v>-85.869851839999995</v>
+        <v>-85.520837229999998</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>39.250621899999999</v>
+        <v>39.506093790000001</v>
       </c>
       <c r="B25" s="1">
-        <v>-85.829452149999995</v>
+        <v>-85.019381319999994</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>39.52097869</v>
+        <v>39.422320620000001</v>
       </c>
       <c r="B26" s="1">
-        <v>-85.554405779999996</v>
+        <v>-85.302855829999999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>39.200085799999997</v>
+        <v>39.53251977</v>
       </c>
       <c r="B27" s="1">
-        <v>-85.576006169999999</v>
+        <v>-85.425453559999994</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>39.356060050000004</v>
+        <v>39.370101349999999</v>
       </c>
       <c r="B28" s="1">
-        <v>-85.011488139999997</v>
+        <v>-85.451009859999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>39.289067490000001</v>
+        <v>39.185684469999998</v>
       </c>
       <c r="B29" s="1">
-        <v>-85.075280169999999</v>
+        <v>-85.86441628</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>39.851230180000002</v>
+        <v>39.455166310000003</v>
       </c>
       <c r="B30" s="1">
-        <v>-85.041865470000005</v>
+        <v>-85.343160479999995</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>39.215153010000002</v>
+        <v>39.440228220000002</v>
       </c>
       <c r="B31" s="1">
-        <v>-85.564102950000006</v>
+        <v>-85.824431709999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>39.351229629999999</v>
+        <v>39.772969830000001</v>
       </c>
       <c r="B32" s="1">
-        <v>-85.012645489999997</v>
+        <v>-85.0654033</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>39.396173990000001</v>
+        <v>39.485698190000001</v>
       </c>
       <c r="B33" s="1">
-        <v>-85.270297830000004</v>
+        <v>-85.581272049999995</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>39.414241029999999</v>
+        <v>39.13506409</v>
       </c>
       <c r="B34" s="1">
-        <v>-85.865071380000003</v>
+        <v>-85.527495959999996</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>39.5392425</v>
+        <v>39.988545719999998</v>
       </c>
       <c r="B35" s="1">
-        <v>-85.494896969999999</v>
+        <v>-85.749885710000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>39.68755822</v>
+        <v>39.978951430000002</v>
       </c>
       <c r="B36" s="1">
-        <v>-85.448107109999995</v>
+        <v>-85.647207109999997</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>39.177866020000003</v>
+        <v>39.228790699999998</v>
       </c>
       <c r="B37" s="1">
-        <v>-85.93043892</v>
+        <v>-85.911162899999994</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>39.340646380000003</v>
+        <v>39.417149039999998</v>
       </c>
       <c r="B38" s="1">
-        <v>-85.557484419999994</v>
+        <v>-85.010703879999994</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>39.022785310000003</v>
+        <v>39.308252709999998</v>
       </c>
       <c r="B39" s="1">
-        <v>-85.893901659999997</v>
+        <v>-85.05234797</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>39.348357290000003</v>
+        <v>39.138300889999996</v>
       </c>
       <c r="B40" s="1">
-        <v>-85.005290610000003</v>
+        <v>-85.616761569999994</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>39.127558809999996</v>
+        <v>39.314447119999997</v>
       </c>
       <c r="B41" s="1">
-        <v>-85.694392519999994</v>
+        <v>-85.679381789999994</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>39.890241580000001</v>
+        <v>39.390430770000002</v>
       </c>
       <c r="B42" s="1">
-        <v>-85.691670079999994</v>
+        <v>-85.634214229999998</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>39.914315719999998</v>
+        <v>39.812127220000001</v>
       </c>
       <c r="B43" s="1">
-        <v>-85.074935749999995</v>
+        <v>-85.788509759999997</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>39.434622240000003</v>
+        <v>39.244727009999998</v>
       </c>
       <c r="B44" s="1">
-        <v>-85.796991719999994</v>
+        <v>-85.741670429999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>39.658468489999997</v>
+        <v>39.942906690000001</v>
       </c>
       <c r="B45" s="1">
-        <v>-85.833382970000002</v>
+        <v>-85.587784189999994</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>39.194484600000003</v>
+        <v>39.741528879999997</v>
       </c>
       <c r="B46" s="1">
-        <v>-85.339123020000002</v>
+        <v>-85.787239619999994</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>39.868241419999997</v>
+        <v>39.579136210000001</v>
       </c>
       <c r="B47" s="1">
-        <v>-85.564794680000006</v>
+        <v>-85.639974809999998</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>39.686579569999999</v>
+        <v>39.867922159999999</v>
       </c>
       <c r="B48" s="1">
-        <v>-85.058961780000004</v>
+        <v>-85.767854740000004</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>39.772967600000001</v>
+        <v>39.05692466</v>
       </c>
       <c r="B49" s="1">
-        <v>-85.74381382</v>
+        <v>-85.975829849999997</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>39.977256130000001</v>
+        <v>39.060065090000002</v>
       </c>
       <c r="B50" s="1">
-        <v>-85.909102790000006</v>
+        <v>-85.918259759999998</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>39.72651802</v>
+        <v>39.418258440000002</v>
       </c>
       <c r="B51" s="1">
-        <v>-85.704358729999996</v>
+        <v>-85.842496620000006</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>39.180004820000001</v>
+        <v>39.694924360000002</v>
       </c>
       <c r="B52" s="1">
-        <v>-85.255910479999997</v>
+        <v>-85.472276140000005</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>39.438831980000003</v>
+        <v>39.86330255</v>
       </c>
       <c r="B53" s="1">
-        <v>-85.349511419999999</v>
+        <v>-85.104890670000003</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>39.169006160000002</v>
+        <v>39.082713050000002</v>
       </c>
       <c r="B54" s="1">
-        <v>-85.230237380000005</v>
+        <v>-85.286314630000007</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>39.748077799999997</v>
+        <v>39.56212627</v>
       </c>
       <c r="B55" s="1">
-        <v>-85.735572629999993</v>
+        <v>-85.552910460000007</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>39.446849460000003</v>
+        <v>39.049471539999999</v>
       </c>
       <c r="B56" s="1">
-        <v>-85.027294409999996</v>
+        <v>-85.455400420000004</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>39.039388799999998</v>
+        <v>39.404132519999997</v>
       </c>
       <c r="B57" s="1">
-        <v>-85.544001069999993</v>
+        <v>-85.993883650000001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>39.578318209999999</v>
+        <v>39.010009570000001</v>
       </c>
       <c r="B58" s="1">
-        <v>-85.876828810000006</v>
+        <v>-85.863897449999996</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>39.286611690000001</v>
+        <v>39.156866800000003</v>
       </c>
       <c r="B59" s="1">
-        <v>-85.725519309999996</v>
+        <v>-85.672974409999995</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>39.924269860000003</v>
+        <v>39.087817940000001</v>
       </c>
       <c r="B60" s="1">
-        <v>-85.231655549999999</v>
+        <v>-85.841626489999996</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>39.014059090000003</v>
+        <v>39.211952109999999</v>
       </c>
       <c r="B61" s="1">
-        <v>-85.585382839999994</v>
+        <v>-85.042228750000007</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>39.763264909999997</v>
+        <v>39.159521740000002</v>
       </c>
       <c r="B62" s="1">
-        <v>-85.274918880000001</v>
+        <v>-85.167310130000004</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>39.70002178</v>
+        <v>39.857406249999997</v>
       </c>
       <c r="B63" s="1">
-        <v>-85.176550449999993</v>
+        <v>-85.136449529999993</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>39.325992919999997</v>
+        <v>39.933435430000003</v>
       </c>
       <c r="B64" s="1">
-        <v>-85.618105400000005</v>
+        <v>-85.660783589999994</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>39.882463270000002</v>
+        <v>39.714757489999997</v>
       </c>
       <c r="B65" s="1">
-        <v>-85.486661339999998</v>
+        <v>-85.682463889999994</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>39.236808179999997</v>
+        <v>39.453318240000002</v>
       </c>
       <c r="B66" s="1">
-        <v>-85.793770179999996</v>
+        <v>-85.77901731</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>39.444192039999997</v>
+        <v>39.513564420000002</v>
       </c>
       <c r="B67" s="1">
-        <v>-85.842005970000002</v>
+        <v>-85.433309190000003</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>39.726867689999999</v>
+        <v>39.049758390000001</v>
       </c>
       <c r="B68" s="1">
-        <v>-85.214957569999996</v>
+        <v>-85.227073230000002</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>39.840803000000001</v>
+        <v>39.590152089999997</v>
       </c>
       <c r="B69" s="1">
-        <v>-85.660753779999993</v>
+        <v>-85.684456339999997</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>39.57072539</v>
+        <v>39.378122390000001</v>
       </c>
       <c r="B70" s="1">
-        <v>-85.760751040000002</v>
+        <v>-85.812983680000002</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>39.153566009999999</v>
+        <v>39.412710500000003</v>
       </c>
       <c r="B71" s="1">
-        <v>-85.094098720000005</v>
+        <v>-85.154314470000003</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>39.525632330000001</v>
+        <v>39.443733350000002</v>
       </c>
       <c r="B72" s="1">
-        <v>-85.291481989999994</v>
+        <v>-85.055672400000006</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>39.290335200000001</v>
+        <v>39.403700540000003</v>
       </c>
       <c r="B73" s="1">
-        <v>-85.672228709999999</v>
+        <v>-85.728841959999997</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>39.523997440000002</v>
+        <v>39.21637338</v>
       </c>
       <c r="B74" s="1">
-        <v>-85.803556580000006</v>
+        <v>-85.372719709999998</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>39.437591699999999</v>
+        <v>39.833859760000003</v>
       </c>
       <c r="B75" s="1">
-        <v>-85.191930040000003</v>
+        <v>-85.60995346</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>39.049018580000002</v>
+        <v>39.408334340000003</v>
       </c>
       <c r="B76" s="1">
-        <v>-85.490798639999994</v>
+        <v>-85.388740490000004</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>39.870169140000002</v>
+        <v>39.966991950000001</v>
       </c>
       <c r="B77" s="1">
-        <v>-85.608332840000003</v>
+        <v>-85.721392620000003</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>39.470971820000003</v>
+        <v>39.462982250000003</v>
       </c>
       <c r="B78" s="1">
-        <v>-85.332652659999994</v>
+        <v>-85.017290029999998</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>39.932972909999997</v>
+        <v>39.236335449999999</v>
       </c>
       <c r="B79" s="1">
-        <v>-85.239527409999994</v>
+        <v>-85.837392440000002</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>39.499414610000002</v>
+        <v>39.216323760000002</v>
       </c>
       <c r="B80" s="1">
-        <v>-85.199084900000003</v>
+        <v>-85.040381190000005</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>39.943586080000003</v>
+        <v>39.40176031</v>
       </c>
       <c r="B81" s="1">
-        <v>-85.945907340000005</v>
+        <v>-85.811482900000001</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>39.640536500000003</v>
+        <v>39.397237969999999</v>
       </c>
       <c r="B82" s="1">
-        <v>-85.274958409999996</v>
+        <v>-85.651909840000002</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>39.223082689999998</v>
+        <v>39.958575369999998</v>
       </c>
       <c r="B83" s="1">
-        <v>-85.727838689999999</v>
+        <v>-85.652569069999998</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>39.871216959999998</v>
+        <v>39.811630430000001</v>
       </c>
       <c r="B84" s="1">
-        <v>-85.980021339999993</v>
+        <v>-85.449507139999994</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>39.151854319999998</v>
+        <v>39.736377419999997</v>
       </c>
       <c r="B85" s="1">
-        <v>-85.888321529999999</v>
+        <v>-85.656195960000005</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>39.92628363</v>
+        <v>39.549089610000003</v>
       </c>
       <c r="B86" s="1">
-        <v>-85.548933959999999</v>
+        <v>-85.953458600000005</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>39.938493280000003</v>
+        <v>39.043562039999998</v>
       </c>
       <c r="B87" s="1">
-        <v>-85.477841799999993</v>
+        <v>-85.489273179999998</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>39.649498350000002</v>
+        <v>39.46355586</v>
       </c>
       <c r="B88" s="1">
-        <v>-85.029832580000004</v>
+        <v>-85.676930960000007</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>39.68745139</v>
+        <v>39.246546559999999</v>
       </c>
       <c r="B89" s="1">
-        <v>-85.453712940000003</v>
+        <v>-85.748029979999998</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>39.844139159999997</v>
+        <v>39.869757870000001</v>
       </c>
       <c r="B90" s="1">
-        <v>-85.266157340000007</v>
+        <v>-85.022644380000003</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>39.201555540000001</v>
+        <v>39.80780214</v>
       </c>
       <c r="B91" s="1">
-        <v>-85.591053770000002</v>
+        <v>-85.845326400000005</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>39.411333579999997</v>
+        <v>39.005807419999996</v>
       </c>
       <c r="B92" s="1">
-        <v>-85.713302170000006</v>
+        <v>-85.926509830000001</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>39.226628640000001</v>
+        <v>39.014703140000002</v>
       </c>
       <c r="B93" s="1">
-        <v>-85.284378770000004</v>
+        <v>-85.856394429999995</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>39.543546399999997</v>
+        <v>39.493601210000001</v>
       </c>
       <c r="B94" s="1">
-        <v>-85.186796560000005</v>
+        <v>-85.956848449999995</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>39.092982130000003</v>
+        <v>39.924460750000001</v>
       </c>
       <c r="B95" s="1">
-        <v>-85.673166600000002</v>
+        <v>-85.334225090000004</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>39.68381763</v>
+        <v>39.97460762</v>
       </c>
       <c r="B96" s="1">
-        <v>-85.445726250000007</v>
+        <v>-85.605809780000001</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>39.439643070000002</v>
+        <v>39.744204089999997</v>
       </c>
       <c r="B97" s="1">
-        <v>-85.855712109999999</v>
+        <v>-85.761608539999997</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>39.317059</v>
+        <v>39.087536210000003</v>
       </c>
       <c r="B98" s="1">
-        <v>-85.426546239999993</v>
+        <v>-85.230070229999995</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>39.349648479999999</v>
+        <v>39.620393730000004</v>
       </c>
       <c r="B99" s="1">
-        <v>-85.955537370000002</v>
+        <v>-85.919784879999995</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>39.571114049999998</v>
+        <v>39.280324239999999</v>
       </c>
       <c r="B100" s="1">
-        <v>-85.069319989999997</v>
+        <v>-85.144362839999999</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>39.878057890000001</v>
+        <v>39.706744860000001</v>
       </c>
       <c r="B101" s="1">
-        <v>-85.242865850000001</v>
+        <v>-85.843988699999997</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>39.391951040000002</v>
+        <v>39.836893080000003</v>
       </c>
       <c r="B102" s="1">
-        <v>-85.076732820000004</v>
+        <v>-85.384443430000005</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>39.642107780000003</v>
+        <v>39.179661860000003</v>
       </c>
       <c r="B103" s="1">
-        <v>-85.810520010000005</v>
+        <v>-85.651931259999998</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>39.648309709999999</v>
+        <v>39.932648200000003</v>
       </c>
       <c r="B104" s="1">
-        <v>-85.978172709999996</v>
+        <v>-85.976725090000002</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>39.703829349999999</v>
+        <v>39.300449929999999</v>
       </c>
       <c r="B105" s="1">
-        <v>-85.481131809999994</v>
+        <v>-85.620885079999994</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>39.775160569999997</v>
+        <v>39.10632665</v>
       </c>
       <c r="B106" s="1">
-        <v>-85.284793719999996</v>
+        <v>-85.346031100000005</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>39.686669350000003</v>
+        <v>39.741874260000003</v>
       </c>
       <c r="B107" s="1">
-        <v>-85.095178970000006</v>
+        <v>-85.978234259999994</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>39.822005519999998</v>
+        <v>39.527834540000001</v>
       </c>
       <c r="B108" s="1">
-        <v>-85.335249189999999</v>
+        <v>-85.015468249999998</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>39.747580589999998</v>
+        <v>39.338087520000002</v>
       </c>
       <c r="B109" s="1">
-        <v>-85.052538459999994</v>
+        <v>-85.932885909999996</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>39.698573789999998</v>
+        <v>39.944253500000002</v>
       </c>
       <c r="B110" s="1">
-        <v>-85.170418299999994</v>
+        <v>-85.712979700000005</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>39.384438410000001</v>
+        <v>39.791356260000001</v>
       </c>
       <c r="B111" s="1">
-        <v>-85.008009279999996</v>
+        <v>-85.33153102</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>39.44890358</v>
+        <v>39.514391340000003</v>
       </c>
       <c r="B112" s="1">
-        <v>-85.233947689999994</v>
+        <v>-85.15909139</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>39.513890019999998</v>
+        <v>39.38546479</v>
       </c>
       <c r="B113" s="1">
-        <v>-85.439008389999998</v>
+        <v>-85.307731829999994</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>39.615168750000002</v>
+        <v>39.616420069999997</v>
       </c>
       <c r="B114" s="1">
-        <v>-85.507343349999999</v>
+        <v>-85.106992680000005</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>39.713529979999997</v>
+        <v>39.062572330000002</v>
       </c>
       <c r="B115" s="1">
-        <v>-85.967503210000004</v>
+        <v>-85.946891500000007</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>39.098115200000002</v>
+        <v>39.95671943</v>
       </c>
       <c r="B116" s="1">
-        <v>-85.897151879999996</v>
+        <v>-85.462510769999994</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>39.543797439999999</v>
+        <v>39.200194459999999</v>
       </c>
       <c r="B117" s="1">
-        <v>-85.915930930000002</v>
+        <v>-85.527915010000001</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>39.276083929999999</v>
+        <v>39.447969469999997</v>
       </c>
       <c r="B118" s="1">
-        <v>-85.562179639999997</v>
+        <v>-85.035701759999995</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>39.564806400000002</v>
+        <v>39.011172289999998</v>
       </c>
       <c r="B119" s="1">
-        <v>-85.451165579999994</v>
+        <v>-85.952316749999994</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>39.81968638</v>
+        <v>39.36058594</v>
       </c>
       <c r="B120" s="1">
-        <v>-85.398883510000005</v>
+        <v>-85.804101279999998</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>39.883602539999998</v>
+        <v>39.85518545</v>
       </c>
       <c r="B121" s="1">
-        <v>-85.673206969999995</v>
+        <v>-85.963058380000007</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>39.450355979999998</v>
+        <v>39.932662929999999</v>
       </c>
       <c r="B122" s="1">
-        <v>-85.416018969999996</v>
+        <v>-85.692070060000006</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>39.346035860000001</v>
+        <v>39.529412739999998</v>
       </c>
       <c r="B123" s="1">
-        <v>-85.660475669999997</v>
+        <v>-85.010173210000005</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>39.807722239999997</v>
+        <v>39.165740479999997</v>
       </c>
       <c r="B124" s="1">
-        <v>-85.066204970000001</v>
+        <v>-85.500834659999995</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>39.238261520000002</v>
+        <v>39.101953260000002</v>
       </c>
       <c r="B125" s="1">
-        <v>-85.106835320000002</v>
+        <v>-85.464251009999998</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>39.039925490000002</v>
+        <v>39.956482540000003</v>
       </c>
       <c r="B126" s="1">
-        <v>-85.406865170000003</v>
+        <v>-85.236369389999993</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>39.748951419999997</v>
+        <v>39.440438700000001</v>
       </c>
       <c r="B127" s="1">
-        <v>-85.707292550000005</v>
+        <v>-85.249620770000007</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>39.399262800000002</v>
+        <v>39.472608350000002</v>
       </c>
       <c r="B128" s="1">
-        <v>-85.938211989999999</v>
+        <v>-85.418185559999998</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>39.089485080000003</v>
+        <v>39.59094786</v>
       </c>
       <c r="B129" s="1">
-        <v>-85.753087170000001</v>
+        <v>-85.711582440000001</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>39.378786009999999</v>
+        <v>39.081660579999998</v>
       </c>
       <c r="B130" s="1">
-        <v>-85.278665559999993</v>
+        <v>-85.181541269999997</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>39.001640870000003</v>
+        <v>39.560512090000003</v>
       </c>
       <c r="B131" s="1">
-        <v>-85.601621190000003</v>
+        <v>-85.826137489999994</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>39.350962889999998</v>
+        <v>39.40638268</v>
       </c>
       <c r="B132" s="1">
-        <v>-85.178489189999993</v>
+        <v>-85.547251869999997</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>39.286796510000002</v>
+        <v>39.491981269999997</v>
       </c>
       <c r="B133" s="1">
-        <v>-85.767681190000005</v>
+        <v>-85.742357620000007</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>39.915846629999997</v>
+        <v>39.984479319999998</v>
       </c>
       <c r="B134" s="1">
-        <v>-85.477127490000001</v>
+        <v>-85.097820029999994</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>39.888920740000003</v>
+        <v>39.973651510000003</v>
       </c>
       <c r="B135" s="1">
-        <v>-85.187476750000002</v>
+        <v>-85.830556049999998</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>39.599350569999999</v>
+        <v>39.122608999999997</v>
       </c>
       <c r="B136" s="1">
-        <v>-85.37394415</v>
+        <v>-85.439294110000006</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>39.665240660000002</v>
+        <v>39.27264495</v>
       </c>
       <c r="B137" s="1">
-        <v>-85.80283378</v>
+        <v>-85.063427559999994</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>39.347769329999998</v>
+        <v>39.242089239999999</v>
       </c>
       <c r="B138" s="1">
-        <v>-85.031602770000006</v>
+        <v>-85.379338939999997</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>39.305498309999997</v>
+        <v>39.111302850000001</v>
       </c>
       <c r="B139" s="1">
-        <v>-85.451228790000002</v>
+        <v>-85.673386620000002</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>39.88129284</v>
+        <v>39.131861720000003</v>
       </c>
       <c r="B140" s="1">
-        <v>-85.504325440000002</v>
+        <v>-85.903507439999998</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>39.734464750000001</v>
+        <v>39.446574720000001</v>
       </c>
       <c r="B141" s="1">
-        <v>-85.641485669999994</v>
+        <v>-85.373645499999995</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>39.807221990000002</v>
+        <v>39.331526449999998</v>
       </c>
       <c r="B142" s="1">
-        <v>-85.352461009999999</v>
+        <v>-85.686479770000005</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>39.304600659999998</v>
+        <v>39.667199930000002</v>
       </c>
       <c r="B143" s="1">
-        <v>-85.700308390000004</v>
+        <v>-85.252296849999993</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>39.602563779999997</v>
+        <v>39.057550929999998</v>
       </c>
       <c r="B144" s="1">
-        <v>-85.443609469999998</v>
+        <v>-85.487675120000006</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>39.610318139999997</v>
+        <v>39.737675940000003</v>
       </c>
       <c r="B145" s="1">
-        <v>-85.830258720000003</v>
+        <v>-85.328359070000005</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>39.032331050000003</v>
+        <v>39.391243719999999</v>
       </c>
       <c r="B146" s="1">
-        <v>-85.744338740000003</v>
+        <v>-85.351629750000001</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>39.726901310000002</v>
+        <v>39.38745728</v>
       </c>
       <c r="B147" s="1">
-        <v>-85.528142880000004</v>
+        <v>-85.923057499999999</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>39.031613610000001</v>
+        <v>39.494869799999996</v>
       </c>
       <c r="B148" s="1">
-        <v>-85.184050619999994</v>
+        <v>-85.250187789999998</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>39.694443669999998</v>
+        <v>39.901260749999999</v>
       </c>
       <c r="B149" s="1">
-        <v>-85.977859449999997</v>
+        <v>-85.853365550000007</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>39.397138439999999</v>
+        <v>39.389876180000002</v>
       </c>
       <c r="B150" s="1">
-        <v>-85.135300290000004</v>
+        <v>-85.250715659999997</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>39.175634600000002</v>
+        <v>39.43410076</v>
       </c>
       <c r="B151" s="1">
-        <v>-85.832502750000003</v>
+        <v>-85.293270699999994</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>39.446137640000003</v>
+        <v>39.340050079999997</v>
       </c>
       <c r="B152" s="1">
-        <v>-85.139693870000002</v>
+        <v>-85.617850579999995</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>39.772307720000001</v>
+        <v>39.332206839999998</v>
       </c>
       <c r="B153" s="1">
-        <v>-85.963728860000003</v>
+        <v>-85.573393190000004</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>39.515685730000001</v>
+        <v>39.289627860000003</v>
       </c>
       <c r="B154" s="1">
-        <v>-85.77314586</v>
+        <v>-85.268835370000005</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>39.72910005</v>
+        <v>39.118193689999998</v>
       </c>
       <c r="B155" s="1">
-        <v>-85.42266678</v>
+        <v>-85.358115990000002</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>39.677268789999999</v>
+        <v>39.291498820000001</v>
       </c>
       <c r="B156" s="1">
-        <v>-85.52759949</v>
+        <v>-85.576338179999993</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>39.416346279999999</v>
+        <v>39.493290309999999</v>
       </c>
       <c r="B157" s="1">
-        <v>-85.061461850000001</v>
+        <v>-85.87647321</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>39.072384210000003</v>
+        <v>39.077794859999997</v>
       </c>
       <c r="B158" s="1">
-        <v>-85.73452734</v>
+        <v>-85.798316139999997</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>39.616420069999997</v>
+        <v>39.331278449999999</v>
       </c>
       <c r="B159" s="1">
-        <v>-85.106992680000005</v>
+        <v>-85.319188389999994</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>39.85518545</v>
+        <v>39.515172030000002</v>
       </c>
       <c r="B160" s="1">
-        <v>-85.963058380000007</v>
+        <v>-85.84772298</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>39.165740479999997</v>
+        <v>39.583335439999999</v>
       </c>
       <c r="B161" s="1">
-        <v>-85.500834659999995</v>
+        <v>-85.218056809999993</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>39.200194459999999</v>
+        <v>39.857780820000002</v>
       </c>
       <c r="B162" s="1">
-        <v>-85.527915010000001</v>
+        <v>-85.129942929999999</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>39.447969469999997</v>
+        <v>39.029861269999998</v>
       </c>
       <c r="B163" s="1">
-        <v>-85.035701759999995</v>
+        <v>-85.078761159999999</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>39.011172289999998</v>
+        <v>39.869787379999998</v>
       </c>
       <c r="B164" s="1">
-        <v>-85.952316749999994</v>
+        <v>-85.664441640000007</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>39.36058594</v>
+        <v>39.028960759999997</v>
       </c>
       <c r="B165" s="1">
-        <v>-85.804101279999998</v>
+        <v>-85.54914436</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>39.529412739999998</v>
+        <v>39.600783470000003</v>
       </c>
       <c r="B166" s="1">
-        <v>-85.010173210000005</v>
+        <v>-85.769036130000003</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>39.932662929999999</v>
+        <v>39.391853699999999</v>
       </c>
       <c r="B167" s="1">
-        <v>-85.692070060000006</v>
+        <v>-85.998843699999995</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>39.101953260000002</v>
+        <v>39.467898009999999</v>
       </c>
       <c r="B168" s="1">
-        <v>-85.464251009999998</v>
+        <v>-85.785570109999995</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>39.062572330000002</v>
+        <v>39.299176780000003</v>
       </c>
       <c r="B169" s="1">
-        <v>-85.946891500000007</v>
+        <v>-85.457518879999995</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>39.95671943</v>
+        <v>39.996818849999997</v>
       </c>
       <c r="B170" s="1">
-        <v>-85.462510769999994</v>
+        <v>-85.536320169999996</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>39.440438700000001</v>
+        <v>39.340463110000002</v>
       </c>
       <c r="B171" s="1">
-        <v>-85.249620770000007</v>
+        <v>-85.466130969999995</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>39.956482540000003</v>
+        <v>39.287773309999999</v>
       </c>
       <c r="B172" s="1">
-        <v>-85.236369389999993</v>
+        <v>-85.173967779999998</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>39.560512090000003</v>
+        <v>39.881055459999999</v>
       </c>
       <c r="B173" s="1">
-        <v>-85.826137489999994</v>
+        <v>-85.929847640000006</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>39.491981269999997</v>
+        <v>39.239704770000003</v>
       </c>
       <c r="B174" s="1">
-        <v>-85.742357620000007</v>
+        <v>-85.094782820000006</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>39.984479319999998</v>
+        <v>39.369978660000001</v>
       </c>
       <c r="B175" s="1">
-        <v>-85.097820029999994</v>
+        <v>-85.968546869999997</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>39.472608350000002</v>
+        <v>39.22352652</v>
       </c>
       <c r="B176" s="1">
-        <v>-85.418185559999998</v>
+        <v>-85.682008330000002</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>39.081660579999998</v>
+        <v>39.726327840000003</v>
       </c>
       <c r="B177" s="1">
-        <v>-85.181541269999997</v>
+        <v>-85.790619070000005</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>39.122608999999997</v>
+        <v>39.90052867</v>
       </c>
       <c r="B178" s="1">
-        <v>-85.439294110000006</v>
+        <v>-85.420425699999996</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>39.59094786</v>
+        <v>39.109811540000003</v>
       </c>
       <c r="B179" s="1">
-        <v>-85.711582440000001</v>
+        <v>-85.063286899999994</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>39.27264495</v>
+        <v>39.105630259999998</v>
       </c>
       <c r="B180" s="1">
-        <v>-85.063427559999994</v>
+        <v>-85.719511560000001</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>39.973651510000003</v>
+        <v>39.139582369999999</v>
       </c>
       <c r="B181" s="1">
-        <v>-85.830556049999998</v>
+        <v>-85.796706589999999</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>39.40638268</v>
+        <v>39.013650419999998</v>
       </c>
       <c r="B182" s="1">
-        <v>-85.547251869999997</v>
+        <v>-85.542852839999995</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>39.389876180000002</v>
+        <v>39.03195041</v>
       </c>
       <c r="B183" s="1">
-        <v>-85.250715659999997</v>
+        <v>-85.61301856</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>39.331526449999998</v>
+        <v>39.846969719999997</v>
       </c>
       <c r="B184" s="1">
-        <v>-85.686479770000005</v>
+        <v>-85.624772440000001</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>39.494869799999996</v>
+        <v>39.460943520000001</v>
       </c>
       <c r="B185" s="1">
-        <v>-85.250187789999998</v>
+        <v>-85.484354760000002</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>39.901260749999999</v>
+        <v>39.446446010000003</v>
       </c>
       <c r="B186" s="1">
-        <v>-85.853365550000007</v>
+        <v>-85.548391879999997</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>39.111302850000001</v>
+        <v>39.01590152</v>
       </c>
       <c r="B187" s="1">
-        <v>-85.673386620000002</v>
+        <v>-85.255652729999994</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>39.391243719999999</v>
+        <v>39.396797669999998</v>
       </c>
       <c r="B188" s="1">
-        <v>-85.351629750000001</v>
+        <v>-85.645217479999999</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>39.057550929999998</v>
+        <v>39.7566585</v>
       </c>
       <c r="B189" s="1">
-        <v>-85.487675120000006</v>
+        <v>-85.343335850000003</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>39.131861720000003</v>
+        <v>39.571743439999999</v>
       </c>
       <c r="B190" s="1">
-        <v>-85.903507439999998</v>
+        <v>-85.503915590000005</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>39.38745728</v>
+        <v>39.899819559999997</v>
       </c>
       <c r="B191" s="1">
-        <v>-85.923057499999999</v>
+        <v>-85.303726319999996</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>39.242089239999999</v>
+        <v>39.235465529999999</v>
       </c>
       <c r="B192" s="1">
-        <v>-85.379338939999997</v>
+        <v>-85.742903279999993</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>39.737675940000003</v>
+        <v>39.273037109999997</v>
       </c>
       <c r="B193" s="1">
-        <v>-85.328359070000005</v>
+        <v>-85.085030070000002</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>39.446574720000001</v>
+        <v>39.45362531</v>
       </c>
       <c r="B194" s="1">
-        <v>-85.373645499999995</v>
+        <v>-85.440073760000004</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>39.667199930000002</v>
+        <v>39.749297050000003</v>
       </c>
       <c r="B195" s="1">
-        <v>-85.252296849999993</v>
+        <v>-85.417155980000004</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>39.331278449999999</v>
+        <v>39.395067419999997</v>
       </c>
       <c r="B196" s="1">
-        <v>-85.319188389999994</v>
+        <v>-85.834895399999994</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>39.291498820000001</v>
+        <v>39.444929930000001</v>
       </c>
       <c r="B197" s="1">
-        <v>-85.576338179999993</v>
+        <v>-85.744367990000001</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>39.493290309999999</v>
+        <v>39.65638569</v>
       </c>
       <c r="B198" s="1">
-        <v>-85.87647321</v>
+        <v>-85.880270839999994</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>39.118193689999998</v>
+        <v>39.133719069999998</v>
       </c>
       <c r="B199" s="1">
-        <v>-85.358115990000002</v>
+        <v>-85.503020059999997</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>39.340050079999997</v>
+        <v>39.160643739999998</v>
       </c>
       <c r="B200" s="1">
-        <v>-85.617850579999995</v>
+        <v>-85.216671379999994</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>39.43410076</v>
+        <v>39.890117859999997</v>
       </c>
       <c r="B201" s="1">
-        <v>-85.293270699999994</v>
+        <v>-85.654769959999996</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>39.289627860000003</v>
+        <v>39.080269569999999</v>
       </c>
       <c r="B202" s="1">
-        <v>-85.268835370000005</v>
+        <v>-85.661573880000006</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>39.332206839999998</v>
+        <v>39.775160569999997</v>
       </c>
       <c r="B203" s="1">
-        <v>-85.573393190000004</v>
+        <v>-85.284793719999996</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>39.077794859999997</v>
+        <v>39.822005519999998</v>
       </c>
       <c r="B204" s="1">
-        <v>-85.798316139999997</v>
+        <v>-85.335249189999999</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>39.029861269999998</v>
+        <v>39.686669350000003</v>
       </c>
       <c r="B205" s="1">
-        <v>-85.078761159999999</v>
+        <v>-85.095178970000006</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>39.857780820000002</v>
+        <v>39.384438410000001</v>
       </c>
       <c r="B206" s="1">
-        <v>-85.129942929999999</v>
+        <v>-85.008009279999996</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>39.869787379999998</v>
+        <v>39.698573789999998</v>
       </c>
       <c r="B207" s="1">
-        <v>-85.664441640000007</v>
+        <v>-85.170418299999994</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>39.028960759999997</v>
+        <v>39.747580589999998</v>
       </c>
       <c r="B208" s="1">
-        <v>-85.54914436</v>
+        <v>-85.052538459999994</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>39.583335439999999</v>
+        <v>39.44890358</v>
       </c>
       <c r="B209" s="1">
-        <v>-85.218056809999993</v>
+        <v>-85.233947689999994</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>39.515172030000002</v>
+        <v>39.276083929999999</v>
       </c>
       <c r="B210" s="1">
-        <v>-85.84772298</v>
+        <v>-85.562179639999997</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>39.391853699999999</v>
+        <v>39.564806400000002</v>
       </c>
       <c r="B211" s="1">
-        <v>-85.998843699999995</v>
+        <v>-85.451165579999994</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>39.600783470000003</v>
+        <v>39.098115200000002</v>
       </c>
       <c r="B212" s="1">
-        <v>-85.769036130000003</v>
+        <v>-85.897151879999996</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>39.996818849999997</v>
+        <v>39.713529979999997</v>
       </c>
       <c r="B213" s="1">
-        <v>-85.536320169999996</v>
+        <v>-85.967503210000004</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>39.299176780000003</v>
+        <v>39.513890019999998</v>
       </c>
       <c r="B214" s="1">
-        <v>-85.457518879999995</v>
+        <v>-85.439008389999998</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>39.467898009999999</v>
+        <v>39.543797439999999</v>
       </c>
       <c r="B215" s="1">
-        <v>-85.785570109999995</v>
+        <v>-85.915930930000002</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>39.340463110000002</v>
+        <v>39.615168750000002</v>
       </c>
       <c r="B216" s="1">
-        <v>-85.466130969999995</v>
+        <v>-85.507343349999999</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>39.287773309999999</v>
+        <v>39.450355979999998</v>
       </c>
       <c r="B217" s="1">
-        <v>-85.173967779999998</v>
+        <v>-85.416018969999996</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>39.881055459999999</v>
+        <v>39.81968638</v>
       </c>
       <c r="B218" s="1">
-        <v>-85.929847640000006</v>
+        <v>-85.398883510000005</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>39.22352652</v>
+        <v>39.883602539999998</v>
       </c>
       <c r="B219" s="1">
-        <v>-85.682008330000002</v>
+        <v>-85.673206969999995</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>39.239704770000003</v>
+        <v>39.807722239999997</v>
       </c>
       <c r="B220" s="1">
-        <v>-85.094782820000006</v>
+        <v>-85.066204970000001</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>39.369978660000001</v>
+        <v>39.346035860000001</v>
       </c>
       <c r="B221" s="1">
-        <v>-85.968546869999997</v>
+        <v>-85.660475669999997</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>39.726327840000003</v>
+        <v>39.399262800000002</v>
       </c>
       <c r="B222" s="1">
-        <v>-85.790619070000005</v>
+        <v>-85.938211989999999</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>39.90052867</v>
+        <v>39.089485080000003</v>
       </c>
       <c r="B223" s="1">
-        <v>-85.420425699999996</v>
+        <v>-85.753087170000001</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>39.109811540000003</v>
+        <v>39.748951419999997</v>
       </c>
       <c r="B224" s="1">
-        <v>-85.063286899999994</v>
+        <v>-85.707292550000005</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>39.105630259999998</v>
+        <v>39.039925490000002</v>
       </c>
       <c r="B225" s="1">
-        <v>-85.719511560000001</v>
+        <v>-85.406865170000003</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>39.139582369999999</v>
+        <v>39.378786009999999</v>
       </c>
       <c r="B226" s="1">
-        <v>-85.796706589999999</v>
+        <v>-85.278665559999993</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>39.013650419999998</v>
+        <v>39.238261520000002</v>
       </c>
       <c r="B227" s="1">
-        <v>-85.542852839999995</v>
+        <v>-85.106835320000002</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>39.03195041</v>
+        <v>39.286796510000002</v>
       </c>
       <c r="B228" s="1">
-        <v>-85.61301856</v>
+        <v>-85.767681190000005</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>39.846969719999997</v>
+        <v>39.001640870000003</v>
       </c>
       <c r="B229" s="1">
-        <v>-85.624772440000001</v>
+        <v>-85.601621190000003</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>39.460943520000001</v>
+        <v>39.350962889999998</v>
       </c>
       <c r="B230" s="1">
-        <v>-85.484354760000002</v>
+        <v>-85.178489189999993</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>39.446446010000003</v>
+        <v>39.305498309999997</v>
       </c>
       <c r="B231" s="1">
-        <v>-85.548391879999997</v>
+        <v>-85.451228790000002</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>39.01590152</v>
+        <v>39.665240660000002</v>
       </c>
       <c r="B232" s="1">
-        <v>-85.255652729999994</v>
+        <v>-85.80283378</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>39.396797669999998</v>
+        <v>39.915846629999997</v>
       </c>
       <c r="B233" s="1">
-        <v>-85.645217479999999</v>
+        <v>-85.477127490000001</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>39.7566585</v>
+        <v>39.347769329999998</v>
       </c>
       <c r="B234" s="1">
-        <v>-85.343335850000003</v>
+        <v>-85.031602770000006</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>39.235465529999999</v>
+        <v>39.888920740000003</v>
       </c>
       <c r="B235" s="1">
-        <v>-85.742903279999993</v>
+        <v>-85.187476750000002</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>39.273037109999997</v>
+        <v>39.599350569999999</v>
       </c>
       <c r="B236" s="1">
-        <v>-85.085030070000002</v>
+        <v>-85.37394415</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>39.899819559999997</v>
+        <v>39.88129284</v>
       </c>
       <c r="B237" s="1">
-        <v>-85.303726319999996</v>
+        <v>-85.504325440000002</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>39.571743439999999</v>
+        <v>39.734464750000001</v>
       </c>
       <c r="B238" s="1">
-        <v>-85.503915590000005</v>
+        <v>-85.641485669999994</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>39.444929930000001</v>
+        <v>39.726901310000002</v>
       </c>
       <c r="B239" s="1">
-        <v>-85.744367990000001</v>
+        <v>-85.528142880000004</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>39.45362531</v>
+        <v>39.610318139999997</v>
       </c>
       <c r="B240" s="1">
-        <v>-85.440073760000004</v>
+        <v>-85.830258720000003</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>39.749297050000003</v>
+        <v>39.032331050000003</v>
       </c>
       <c r="B241" s="1">
-        <v>-85.417155980000004</v>
+        <v>-85.744338740000003</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>39.395067419999997</v>
+        <v>39.031613610000001</v>
       </c>
       <c r="B242" s="1">
-        <v>-85.834895399999994</v>
+        <v>-85.184050619999994</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>39.65638569</v>
+        <v>39.602563779999997</v>
       </c>
       <c r="B243" s="1">
-        <v>-85.880270839999994</v>
+        <v>-85.443609469999998</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>39.133719069999998</v>
+        <v>39.807221990000002</v>
       </c>
       <c r="B244" s="1">
-        <v>-85.503020059999997</v>
+        <v>-85.352461009999999</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>39.160643739999998</v>
+        <v>39.304600659999998</v>
       </c>
       <c r="B245" s="1">
-        <v>-85.216671379999994</v>
+        <v>-85.700308390000004</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>39.890117859999997</v>
+        <v>39.694443669999998</v>
       </c>
       <c r="B246" s="1">
-        <v>-85.654769959999996</v>
+        <v>-85.977859449999997</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>39.080269569999999</v>
+        <v>39.397138439999999</v>
       </c>
       <c r="B247" s="1">
-        <v>-85.661573880000006</v>
+        <v>-85.135300290000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>39.175634600000002</v>
+      </c>
+      <c r="B248" s="1">
+        <v>-85.832502750000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>39.446137640000003</v>
+      </c>
+      <c r="B249" s="1">
+        <v>-85.139693870000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>39.772307720000001</v>
+      </c>
+      <c r="B250" s="1">
+        <v>-85.963728860000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>39.515685730000001</v>
+      </c>
+      <c r="B251" s="1">
+        <v>-85.77314586</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>39.72910005</v>
+      </c>
+      <c r="B252" s="1">
+        <v>-85.42266678</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>39.677268789999999</v>
+      </c>
+      <c r="B253" s="1">
+        <v>-85.52759949</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>39.416346279999999</v>
+      </c>
+      <c r="B254" s="1">
+        <v>-85.061461850000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>39.072384210000003</v>
+      </c>
+      <c r="B255" s="1">
+        <v>-85.73452734</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>39.014059090000003</v>
+      </c>
+      <c r="B256" s="1">
+        <v>-85.585382839999994</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>39.763264909999997</v>
+      </c>
+      <c r="B257" s="1">
+        <v>-85.274918880000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>39.70002178</v>
+      </c>
+      <c r="B258" s="1">
+        <v>-85.176550449999993</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>39.325992919999997</v>
+      </c>
+      <c r="B259" s="1">
+        <v>-85.618105400000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>39.444192039999997</v>
+      </c>
+      <c r="B260" s="1">
+        <v>-85.842005970000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>39.236808179999997</v>
+      </c>
+      <c r="B261" s="1">
+        <v>-85.793770179999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>39.882463270000002</v>
+      </c>
+      <c r="B262" s="1">
+        <v>-85.486661339999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>39.57072539</v>
+      </c>
+      <c r="B263" s="1">
+        <v>-85.760751040000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>39.840803000000001</v>
+      </c>
+      <c r="B264" s="1">
+        <v>-85.660753779999993</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>39.525632330000001</v>
+      </c>
+      <c r="B265" s="1">
+        <v>-85.291481989999994</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>39.153566009999999</v>
+      </c>
+      <c r="B266" s="1">
+        <v>-85.094098720000005</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>39.726867689999999</v>
+      </c>
+      <c r="B267" s="1">
+        <v>-85.214957569999996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>39.523997440000002</v>
+      </c>
+      <c r="B268" s="1">
+        <v>-85.803556580000006</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>39.437591699999999</v>
+      </c>
+      <c r="B269" s="1">
+        <v>-85.191930040000003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>39.290335200000001</v>
+      </c>
+      <c r="B270" s="1">
+        <v>-85.672228709999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>39.499414610000002</v>
+      </c>
+      <c r="B271" s="1">
+        <v>-85.199084900000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>39.049018580000002</v>
+      </c>
+      <c r="B272" s="1">
+        <v>-85.490798639999994</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>39.470971820000003</v>
+      </c>
+      <c r="B273" s="1">
+        <v>-85.332652659999994</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>39.932972909999997</v>
+      </c>
+      <c r="B274" s="1">
+        <v>-85.239527409999994</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>39.870169140000002</v>
+      </c>
+      <c r="B275" s="1">
+        <v>-85.608332840000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>39.943586080000003</v>
+      </c>
+      <c r="B276" s="1">
+        <v>-85.945907340000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>39.938493280000003</v>
+      </c>
+      <c r="B277" s="1">
+        <v>-85.477841799999993</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>39.92628363</v>
+      </c>
+      <c r="B278" s="1">
+        <v>-85.548933959999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>39.640536500000003</v>
+      </c>
+      <c r="B279" s="1">
+        <v>-85.274958409999996</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>39.871216959999998</v>
+      </c>
+      <c r="B280" s="1">
+        <v>-85.980021339999993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>39.223082689999998</v>
+      </c>
+      <c r="B281" s="1">
+        <v>-85.727838689999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>39.151854319999998</v>
+      </c>
+      <c r="B282" s="1">
+        <v>-85.888321529999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>39.844139159999997</v>
+      </c>
+      <c r="B283" s="1">
+        <v>-85.266157340000007</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>39.201555540000001</v>
+      </c>
+      <c r="B284" s="1">
+        <v>-85.591053770000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>39.226628640000001</v>
+      </c>
+      <c r="B285" s="1">
+        <v>-85.284378770000004</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>39.68745139</v>
+      </c>
+      <c r="B286" s="1">
+        <v>-85.453712940000003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>39.649498350000002</v>
+      </c>
+      <c r="B287" s="1">
+        <v>-85.029832580000004</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>39.411333579999997</v>
+      </c>
+      <c r="B288" s="1">
+        <v>-85.713302170000006</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>39.543546399999997</v>
+      </c>
+      <c r="B289" s="1">
+        <v>-85.186796560000005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>39.092982130000003</v>
+      </c>
+      <c r="B290" s="1">
+        <v>-85.673166600000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>39.68381763</v>
+      </c>
+      <c r="B291" s="1">
+        <v>-85.445726250000007</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>39.317059</v>
+      </c>
+      <c r="B292" s="1">
+        <v>-85.426546239999993</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>39.349648479999999</v>
+      </c>
+      <c r="B293" s="1">
+        <v>-85.955537370000002</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>39.439643070000002</v>
+      </c>
+      <c r="B294" s="1">
+        <v>-85.855712109999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>39.571114049999998</v>
+      </c>
+      <c r="B295" s="1">
+        <v>-85.069319989999997</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>39.878057890000001</v>
+      </c>
+      <c r="B296" s="1">
+        <v>-85.242865850000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>39.391951040000002</v>
+      </c>
+      <c r="B297" s="1">
+        <v>-85.076732820000004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>39.642107780000003</v>
+      </c>
+      <c r="B298" s="1">
+        <v>-85.810520010000005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>39.648309709999999</v>
+      </c>
+      <c r="B299" s="1">
+        <v>-85.978172709999996</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>39.703829349999999</v>
+      </c>
+      <c r="B300" s="1">
+        <v>-85.481131809999994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>39.414241029999999</v>
+      </c>
+      <c r="B301" s="1">
+        <v>-85.865071380000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>39.68755822</v>
+      </c>
+      <c r="B302" s="1">
+        <v>-85.448107109999995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>39.5392425</v>
+      </c>
+      <c r="B303" s="1">
+        <v>-85.494896969999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>39.022785310000003</v>
+      </c>
+      <c r="B304" s="1">
+        <v>-85.893901659999997</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>39.348357290000003</v>
+      </c>
+      <c r="B305" s="1">
+        <v>-85.005290610000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>39.340646380000003</v>
+      </c>
+      <c r="B306" s="1">
+        <v>-85.557484419999994</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>39.177866020000003</v>
+      </c>
+      <c r="B307" s="1">
+        <v>-85.93043892</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>39.127558809999996</v>
+      </c>
+      <c r="B308" s="1">
+        <v>-85.694392519999994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>39.890241580000001</v>
+      </c>
+      <c r="B309" s="1">
+        <v>-85.691670079999994</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>39.434622240000003</v>
+      </c>
+      <c r="B310" s="1">
+        <v>-85.796991719999994</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>39.658468489999997</v>
+      </c>
+      <c r="B311" s="1">
+        <v>-85.833382970000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>39.914315719999998</v>
+      </c>
+      <c r="B312" s="1">
+        <v>-85.074935749999995</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>39.868241419999997</v>
+      </c>
+      <c r="B313" s="1">
+        <v>-85.564794680000006</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>39.686579569999999</v>
+      </c>
+      <c r="B314" s="1">
+        <v>-85.058961780000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>39.194484600000003</v>
+      </c>
+      <c r="B315" s="1">
+        <v>-85.339123020000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>39.772967600000001</v>
+      </c>
+      <c r="B316" s="1">
+        <v>-85.74381382</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>39.977256130000001</v>
+      </c>
+      <c r="B317" s="1">
+        <v>-85.909102790000006</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>39.180004820000001</v>
+      </c>
+      <c r="B318" s="1">
+        <v>-85.255910479999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>39.72651802</v>
+      </c>
+      <c r="B319" s="1">
+        <v>-85.704358729999996</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>39.438831980000003</v>
+      </c>
+      <c r="B320" s="1">
+        <v>-85.349511419999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>39.169006160000002</v>
+      </c>
+      <c r="B321" s="1">
+        <v>-85.230237380000005</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>39.748077799999997</v>
+      </c>
+      <c r="B322" s="1">
+        <v>-85.735572629999993</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>39.446849460000003</v>
+      </c>
+      <c r="B323" s="1">
+        <v>-85.027294409999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>39.039388799999998</v>
+      </c>
+      <c r="B324" s="1">
+        <v>-85.544001069999993</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>39.578318209999999</v>
+      </c>
+      <c r="B325" s="1">
+        <v>-85.876828810000006</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>39.286611690000001</v>
+      </c>
+      <c r="B326" s="1">
+        <v>-85.725519309999996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>39.924269860000003</v>
+      </c>
+      <c r="B327" s="1">
+        <v>-85.231655549999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>39.747559359999997</v>
+      </c>
+      <c r="B328" s="1">
+        <v>-85.213470770000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>39.12924469</v>
+      </c>
+      <c r="B329" s="1">
+        <v>-85.727750159999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>39.021942119999999</v>
+      </c>
+      <c r="B330" s="1">
+        <v>-85.869851839999995</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>39.250621899999999</v>
+      </c>
+      <c r="B331" s="1">
+        <v>-85.829452149999995</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>39.52097869</v>
+      </c>
+      <c r="B332" s="1">
+        <v>-85.554405779999996</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>39.200085799999997</v>
+      </c>
+      <c r="B333" s="1">
+        <v>-85.576006169999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>39.289067490000001</v>
+      </c>
+      <c r="B334" s="1">
+        <v>-85.075280169999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>39.356060050000004</v>
+      </c>
+      <c r="B335" s="1">
+        <v>-85.011488139999997</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>39.851230180000002</v>
+      </c>
+      <c r="B336" s="1">
+        <v>-85.041865470000005</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>39.215153010000002</v>
+      </c>
+      <c r="B337" s="1">
+        <v>-85.564102950000006</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>39.351229629999999</v>
+      </c>
+      <c r="B338" s="1">
+        <v>-85.012645489999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>39.396173990000001</v>
+      </c>
+      <c r="B339" s="1">
+        <v>-85.270297830000004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>39.384033959999996</v>
+      </c>
+      <c r="B340" s="1">
+        <v>-85.425799339999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>39.07029661</v>
+      </c>
+      <c r="B341" s="1">
+        <v>-85.593918909999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>39.832478649999999</v>
+      </c>
+      <c r="B342" s="1">
+        <v>-85.899245559999997</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>39.978555790000001</v>
+      </c>
+      <c r="B343" s="1">
+        <v>-85.285229759999993</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>39.722186469999997</v>
+      </c>
+      <c r="B344" s="1">
+        <v>-85.59112442</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>39.35848172</v>
+      </c>
+      <c r="B345" s="1">
+        <v>-85.347751700000003</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>39.971490119999999</v>
+      </c>
+      <c r="B346" s="1">
+        <v>-85.104786559999994</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>39.303801129999997</v>
+      </c>
+      <c r="B347" s="1">
+        <v>-85.960137349999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>39.959980260000002</v>
+      </c>
+      <c r="B348" s="1">
+        <v>-85.903329069999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>39.406153199999999</v>
+      </c>
+      <c r="B349" s="1">
+        <v>-85.929083000000006</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>39.126167860000002</v>
+      </c>
+      <c r="B350" s="1">
+        <v>-85.108333610000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>39.91571441</v>
+      </c>
+      <c r="B351" s="1">
+        <v>-85.847806939999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>39.599674309999997</v>
+      </c>
+      <c r="B352" s="1">
+        <v>-85.444581769999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>39.759885619999999</v>
+      </c>
+      <c r="B353" s="1">
+        <v>-85.5005065</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>39.246288939999999</v>
+      </c>
+      <c r="B354" s="1">
+        <v>-85.152915460000003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>39.587776949999999</v>
+      </c>
+      <c r="B355" s="1">
+        <v>-85.564805140000004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>39.541384770000001</v>
+      </c>
+      <c r="B356" s="1">
+        <v>-85.58897872</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>39.22516297</v>
+      </c>
+      <c r="B357" s="1">
+        <v>-85.958714709999995</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>39.338425890000003</v>
+      </c>
+      <c r="B358" s="1">
+        <v>-85.052456079999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>39.382426549999998</v>
+      </c>
+      <c r="B359" s="1">
+        <v>-85.499864049999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>39.135109370000002</v>
+      </c>
+      <c r="B360" s="1">
+        <v>-85.830490060000002</v>
       </c>
     </row>
   </sheetData>
